--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_7.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_7.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -44,16 +44,28 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
+    <t>18:03:13 25/06/2022</t>
+  </si>
+  <si>
+    <t>12:55:00 18/06/2022</t>
+  </si>
+  <si>
+    <t>Nộp muộn</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>12:55:00 18/06/2022</t>
-  </si>
-  <si>
     <t>Chưa Nộp</t>
   </si>
   <si>
-    <t>haupham@gmail.com</t>
+    <t>haupham2@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -597,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -643,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -651,19 +663,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -711,42 +743,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
